--- a/config_portal/examples/images-example.xlsx
+++ b/config_portal/examples/images-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tissue-data-explorer/config_portal/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C385A0-E826-BE4E-862A-1F0BBD0A8750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01AB265-7345-6049-A20D-9BD9114DCF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4C3CEB32-934F-4741-97EE-11231D60B5A9}"/>
+    <workbookView xWindow="640" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{4C3CEB32-934F-4741-97EE-11231D60B5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="block-data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Order</t>
   </si>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989D2757-BD7C-144B-BDA6-C7A7A489E518}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,8 +640,8 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -842,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62E87D-1C39-EA44-B778-5ACEBBC062C4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
